--- a/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L9-報表作業/MonthlyLM052Loss.xlsx
+++ b/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L9-報表作業/MonthlyLM052Loss.xlsx
@@ -1,22 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24701"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr showObjects="none" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\SKL\DB\GenTables\L9-報表作業\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\v06v2\Desktop\in\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{504F805F-321D-4308-92E4-4440E11715FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView showHorizontalScroll="0" showVerticalScroll="0" xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView showHorizontalScroll="0" showVerticalScroll="0" xWindow="-110" yWindow="-110" windowWidth="23260" windowHeight="12580"/>
   </bookViews>
   <sheets>
     <sheet name="DBD" sheetId="1" r:id="rId1"/>
     <sheet name="DBS" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -30,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="47">
   <si>
     <t>備註說明</t>
   </si>
@@ -193,13 +192,21 @@
   </si>
   <si>
     <t>findYearMonth</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>findYearMonthAll</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>YearMonth =</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -586,23 +593,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -638,23 +628,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -830,25 +803,25 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G20"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.44140625" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="21.453125" defaultRowHeight="17" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="5.21875" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="25.21875" style="3" customWidth="1"/>
-    <col min="3" max="3" width="33.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="27.6640625" style="6" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="6.21875" style="3" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="36.109375" style="3" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="21.44140625" style="4"/>
+    <col min="1" max="1" width="5.1796875" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.1796875" style="3" customWidth="1"/>
+    <col min="3" max="3" width="33.6328125" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="27.6328125" style="6" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="6.1796875" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="36.08984375" style="3" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="21.453125" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A1" s="31" t="s">
         <v>15</v>
       </c>
@@ -863,7 +836,7 @@
       <c r="F1" s="11"/>
       <c r="G1" s="11"/>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A2" s="31"/>
       <c r="B2" s="32"/>
       <c r="C2" s="12" t="s">
@@ -876,7 +849,7 @@
       <c r="F2" s="15"/>
       <c r="G2" s="15"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A3" s="36" t="s">
         <v>10</v>
       </c>
@@ -891,7 +864,7 @@
       <c r="F3" s="18"/>
       <c r="G3" s="18"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A4" s="33" t="s">
         <v>11</v>
       </c>
@@ -902,7 +875,7 @@
       <c r="F4" s="18"/>
       <c r="G4" s="18"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A5" s="36" t="s">
         <v>12</v>
       </c>
@@ -913,7 +886,7 @@
       <c r="F5" s="11"/>
       <c r="G5" s="11"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A6" s="33" t="s">
         <v>13</v>
       </c>
@@ -924,7 +897,7 @@
       <c r="F6" s="18"/>
       <c r="G6" s="18"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A7" s="33" t="s">
         <v>14</v>
       </c>
@@ -935,7 +908,7 @@
       <c r="F7" s="22"/>
       <c r="G7" s="22"/>
     </row>
-    <row r="8" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A8" s="12" t="s">
         <v>6</v>
       </c>
@@ -958,7 +931,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A9" s="24">
         <v>1</v>
       </c>
@@ -977,7 +950,7 @@
       <c r="F9" s="24"/>
       <c r="G9" s="19"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A10" s="24">
         <f>A9+1</f>
         <v>2</v>
@@ -999,7 +972,7 @@
       </c>
       <c r="G10" s="27"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A11" s="24">
         <v>3</v>
       </c>
@@ -1020,7 +993,7 @@
       </c>
       <c r="G11" s="28"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A12" s="24">
         <v>4</v>
       </c>
@@ -1041,7 +1014,7 @@
       </c>
       <c r="G12" s="28"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A13" s="24">
         <v>5</v>
       </c>
@@ -1058,7 +1031,7 @@
       <c r="F13" s="24"/>
       <c r="G13" s="27"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A14" s="24">
         <v>6</v>
       </c>
@@ -1077,7 +1050,7 @@
       <c r="F14" s="24"/>
       <c r="G14" s="28"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A15" s="24">
         <v>7</v>
       </c>
@@ -1094,7 +1067,7 @@
       <c r="F15" s="24"/>
       <c r="G15" s="29"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A16" s="24">
         <v>8</v>
       </c>
@@ -1113,20 +1086,20 @@
       <c r="F16" s="24"/>
       <c r="G16" s="29"/>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A17" s="7"/>
       <c r="B17" s="24"/>
       <c r="C17" s="25"/>
       <c r="D17" s="30"/>
       <c r="E17" s="24"/>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A18" s="7"/>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A19" s="7"/>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A20" s="7"/>
     </row>
   </sheetData>
@@ -1146,23 +1119,23 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:C2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
+      <selection pane="bottomLeft" activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="28.33203125" style="2" customWidth="1"/>
-    <col min="2" max="2" width="87.109375" style="2" customWidth="1"/>
-    <col min="3" max="3" width="55.88671875" style="2" customWidth="1"/>
+    <col min="1" max="1" width="28.36328125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="87.08984375" style="2" customWidth="1"/>
+    <col min="3" max="3" width="55.90625" style="2" customWidth="1"/>
     <col min="4" max="4" width="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1" s="5" t="s">
         <v>18</v>
       </c>
@@ -1173,7 +1146,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A2" s="2" t="s">
         <v>44</v>
       </c>
@@ -1182,6 +1155,14 @@
       </c>
       <c r="C2" s="2" t="s">
         <v>43</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A3" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>46</v>
       </c>
     </row>
   </sheetData>

--- a/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L9-報表作業/MonthlyLM052Loss.xlsx
+++ b/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L9-報表作業/MonthlyLM052Loss.xlsx
@@ -1,35 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26731"/>
   <workbookPr showObjects="none" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\v06v2\Desktop\in\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\SKL\DB\GenTables\L9-報表作業\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF033EC2-F6C6-4E1B-B3F9-EAA1B5B396EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView showHorizontalScroll="0" showVerticalScroll="0" xWindow="-110" yWindow="-110" windowWidth="23260" windowHeight="12580"/>
+    <workbookView showHorizontalScroll="0" showVerticalScroll="0" xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DBD" sheetId="1" r:id="rId1"/>
     <sheet name="DBS" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="181029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="52">
   <si>
     <t>備註說明</t>
   </si>
@@ -106,10 +98,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>DATE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>CreateEmpNo</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -151,31 +139,7 @@
     <t>DECIMAL</t>
   </si>
   <si>
-    <t>五類資產評估合計</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>法定備抵損失提撥</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>會計部核定備抵損失</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AssetEvaTotal</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MonthlyLM052Loss</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>LM052備抵損失資料檔</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ApprovedLoss</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -201,12 +165,56 @@
   <si>
     <t>YearMonth =</t>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>更新BY</t>
+  </si>
+  <si>
+    <t>L7205-五類資產分類上傳轉檔作業</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LM051更新</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LM052更新</t>
+  </si>
+  <si>
+    <t>LM052更新</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AssetEvaTotal</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>法定備抵提存(五類資產評估)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>法定備抵提存(特定資產項目)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MonthlyLM052Loss</t>
+  </si>
+  <si>
+    <t>ApprovedLoss</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LM052備抵損失資料檔</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TIMESTAMP</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -388,11 +396,11 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
@@ -401,28 +409,22 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -431,19 +433,19 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -452,10 +454,10 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -518,9 +520,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 佈景主題">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -558,9 +560,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -595,7 +597,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -630,7 +632,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -803,304 +805,306 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G20"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.453125" defaultRowHeight="17" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="21.44140625" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="5.1796875" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="25.1796875" style="3" customWidth="1"/>
-    <col min="3" max="3" width="33.6328125" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="27.6328125" style="6" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="6.1796875" style="3" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="36.08984375" style="3" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="21.453125" style="4"/>
+    <col min="1" max="1" width="5.21875" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.21875" style="3" customWidth="1"/>
+    <col min="3" max="3" width="33.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="27.6640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="6.21875" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="36.109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="21.44140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A1" s="31" t="s">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1" s="29" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="32"/>
-      <c r="C1" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="D1" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="E1" s="10"/>
-      <c r="F1" s="11"/>
-      <c r="G1" s="11"/>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A2" s="31"/>
-      <c r="B2" s="32"/>
-      <c r="C2" s="12" t="s">
+      <c r="B1" s="30"/>
+      <c r="C1" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="E1" s="8"/>
+      <c r="F1" s="9"/>
+      <c r="G1" s="9"/>
+      <c r="H1" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2" s="29"/>
+      <c r="B2" s="30"/>
+      <c r="C2" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="13" t="s">
+      <c r="D2" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="E2" s="14"/>
-      <c r="F2" s="15"/>
-      <c r="G2" s="15"/>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A3" s="36" t="s">
+      <c r="E2" s="12"/>
+      <c r="F2" s="13"/>
+      <c r="G2" s="13"/>
+      <c r="H2" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A3" s="34" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="36"/>
-      <c r="C3" s="16" t="s">
+      <c r="B3" s="34"/>
+      <c r="C3" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="E3" s="15"/>
+      <c r="F3" s="16"/>
+      <c r="G3" s="16"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A4" s="31" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" s="33"/>
+      <c r="C4" s="17"/>
+      <c r="D4" s="7"/>
+      <c r="E4" s="15"/>
+      <c r="F4" s="16"/>
+      <c r="G4" s="16"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A5" s="34" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" s="34"/>
+      <c r="C5" s="18"/>
+      <c r="D5" s="7"/>
+      <c r="E5" s="8"/>
+      <c r="F5" s="9"/>
+      <c r="G5" s="9"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A6" s="31" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" s="32"/>
+      <c r="C6" s="14"/>
+      <c r="D6" s="7"/>
+      <c r="E6" s="15"/>
+      <c r="F6" s="16"/>
+      <c r="G6" s="16"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A7" s="31" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" s="33"/>
+      <c r="C7" s="14"/>
+      <c r="D7" s="7"/>
+      <c r="E7" s="19"/>
+      <c r="F7" s="20"/>
+      <c r="G7" s="20"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A8" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="C8" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="D8" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="E8" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="F8" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="G8" s="21" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A9" s="22">
+        <v>1</v>
+      </c>
+      <c r="B9" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="C9" s="23" t="s">
         <v>30</v>
       </c>
-      <c r="D3" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="E3" s="17"/>
-      <c r="F3" s="18"/>
-      <c r="G3" s="18"/>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A4" s="33" t="s">
-        <v>11</v>
-      </c>
-      <c r="B4" s="35"/>
-      <c r="C4" s="19"/>
-      <c r="D4" s="9"/>
-      <c r="E4" s="17"/>
-      <c r="F4" s="18"/>
-      <c r="G4" s="18"/>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A5" s="36" t="s">
-        <v>12</v>
-      </c>
-      <c r="B5" s="36"/>
-      <c r="C5" s="20"/>
-      <c r="D5" s="9"/>
-      <c r="E5" s="10"/>
-      <c r="F5" s="11"/>
-      <c r="G5" s="11"/>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A6" s="33" t="s">
-        <v>13</v>
-      </c>
-      <c r="B6" s="34"/>
-      <c r="C6" s="16"/>
-      <c r="D6" s="9"/>
-      <c r="E6" s="17"/>
-      <c r="F6" s="18"/>
-      <c r="G6" s="18"/>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A7" s="33" t="s">
-        <v>14</v>
-      </c>
-      <c r="B7" s="35"/>
-      <c r="C7" s="16"/>
-      <c r="D7" s="9"/>
-      <c r="E7" s="21"/>
-      <c r="F7" s="22"/>
-      <c r="G7" s="22"/>
-    </row>
-    <row r="8" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A8" s="12" t="s">
+      <c r="D9" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="E9" s="22">
         <v>6</v>
       </c>
-      <c r="B8" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="C8" s="23" t="s">
-        <v>2</v>
-      </c>
-      <c r="D8" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="E8" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="F8" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="G8" s="23" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A9" s="24">
-        <v>1</v>
-      </c>
-      <c r="B9" s="16" t="s">
-        <v>30</v>
-      </c>
-      <c r="C9" s="25" t="s">
-        <v>31</v>
-      </c>
-      <c r="D9" s="24" t="s">
-        <v>32</v>
-      </c>
-      <c r="E9" s="24">
-        <v>6</v>
-      </c>
-      <c r="F9" s="24"/>
-      <c r="G9" s="19"/>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A10" s="24">
+      <c r="F9" s="22"/>
+      <c r="G9" s="17"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A10" s="22">
         <f>A9+1</f>
         <v>2</v>
       </c>
-      <c r="B10" s="16" t="s">
-        <v>37</v>
-      </c>
-      <c r="C10" s="25" t="s">
+      <c r="B10" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="C10" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="D10" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="E10" s="22">
+        <v>16</v>
+      </c>
+      <c r="F10" s="22">
+        <v>2</v>
+      </c>
+      <c r="G10" s="25" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A11" s="22">
+        <v>3</v>
+      </c>
+      <c r="B11" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="D10" s="24" t="s">
+      <c r="C11" s="23" t="s">
+        <v>47</v>
+      </c>
+      <c r="D11" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="E11" s="22">
+        <v>16</v>
+      </c>
+      <c r="F11" s="22">
+        <v>2</v>
+      </c>
+      <c r="G11" s="26" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A12" s="22">
+        <v>4</v>
+      </c>
+      <c r="B12" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="C12" s="23" t="s">
         <v>33</v>
       </c>
-      <c r="E10" s="24">
+      <c r="D12" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="E12" s="22">
         <v>16</v>
       </c>
-      <c r="F10" s="24">
+      <c r="F12" s="22">
         <v>2</v>
       </c>
-      <c r="G10" s="27"/>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A11" s="24">
-        <v>3</v>
-      </c>
-      <c r="B11" s="16" t="s">
-        <v>41</v>
-      </c>
-      <c r="C11" s="25" t="s">
-        <v>35</v>
-      </c>
-      <c r="D11" s="24" t="s">
-        <v>33</v>
-      </c>
-      <c r="E11" s="24">
-        <v>16</v>
-      </c>
-      <c r="F11" s="24">
-        <v>2</v>
-      </c>
-      <c r="G11" s="28"/>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A12" s="24">
-        <v>4</v>
-      </c>
-      <c r="B12" s="16" t="s">
-        <v>40</v>
-      </c>
-      <c r="C12" s="25" t="s">
-        <v>36</v>
-      </c>
-      <c r="D12" s="24" t="s">
-        <v>33</v>
-      </c>
-      <c r="E12" s="24">
-        <v>16</v>
-      </c>
-      <c r="F12" s="24">
-        <v>2</v>
-      </c>
-      <c r="G12" s="28"/>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A13" s="24">
+      <c r="G12" s="26" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A13" s="22">
         <v>5</v>
       </c>
-      <c r="B13" s="26" t="s">
+      <c r="B13" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="C13" s="26" t="s">
+      <c r="C13" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="D13" s="24" t="s">
+      <c r="D13" s="22" t="s">
+        <v>51</v>
+      </c>
+      <c r="E13" s="22"/>
+      <c r="F13" s="22"/>
+      <c r="G13" s="25"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A14" s="22">
+        <v>6</v>
+      </c>
+      <c r="B14" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="E13" s="24"/>
-      <c r="F13" s="24"/>
-      <c r="G13" s="27"/>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A14" s="24">
+      <c r="C14" s="24" t="s">
+        <v>23</v>
+      </c>
+      <c r="D14" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="E14" s="22">
         <v>6</v>
       </c>
-      <c r="B14" s="26" t="s">
-        <v>23</v>
-      </c>
-      <c r="C14" s="26" t="s">
+      <c r="F14" s="22"/>
+      <c r="G14" s="26"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A15" s="22">
+        <v>7</v>
+      </c>
+      <c r="B15" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="D14" s="24" t="s">
-        <v>19</v>
-      </c>
-      <c r="E14" s="24">
+      <c r="C15" s="24" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" s="22" t="s">
+        <v>51</v>
+      </c>
+      <c r="E15" s="22"/>
+      <c r="F15" s="22"/>
+      <c r="G15" s="27"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A16" s="22">
+        <v>8</v>
+      </c>
+      <c r="B16" s="24" t="s">
+        <v>26</v>
+      </c>
+      <c r="C16" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="D16" s="22" t="s">
+        <v>28</v>
+      </c>
+      <c r="E16" s="22">
         <v>6</v>
       </c>
-      <c r="F14" s="24"/>
-      <c r="G14" s="28"/>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A15" s="24">
-        <v>7</v>
-      </c>
-      <c r="B15" s="26" t="s">
-        <v>25</v>
-      </c>
-      <c r="C15" s="26" t="s">
-        <v>26</v>
-      </c>
-      <c r="D15" s="24" t="s">
-        <v>22</v>
-      </c>
-      <c r="E15" s="24"/>
-      <c r="F15" s="24"/>
-      <c r="G15" s="29"/>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A16" s="24">
-        <v>8</v>
-      </c>
-      <c r="B16" s="26" t="s">
-        <v>27</v>
-      </c>
-      <c r="C16" s="26" t="s">
-        <v>28</v>
-      </c>
-      <c r="D16" s="24" t="s">
-        <v>29</v>
-      </c>
-      <c r="E16" s="24">
-        <v>6</v>
-      </c>
-      <c r="F16" s="24"/>
-      <c r="G16" s="29"/>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A17" s="7"/>
-      <c r="B17" s="24"/>
-      <c r="C17" s="25"/>
-      <c r="D17" s="30"/>
-      <c r="E17" s="24"/>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A18" s="7"/>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A19" s="7"/>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A20" s="7"/>
+      <c r="F16" s="22"/>
+      <c r="G16" s="27"/>
+    </row>
+    <row r="17" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B17" s="22"/>
+      <c r="C17" s="23"/>
+      <c r="D17" s="28"/>
+      <c r="E17" s="22"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -1119,7 +1123,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
@@ -1127,42 +1131,42 @@
       <selection pane="bottomLeft" activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="28.36328125" style="2" customWidth="1"/>
-    <col min="2" max="2" width="87.08984375" style="2" customWidth="1"/>
-    <col min="3" max="3" width="55.90625" style="2" customWidth="1"/>
+    <col min="1" max="1" width="28.33203125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="87.109375" style="2" customWidth="1"/>
+    <col min="3" max="3" width="55.88671875" style="2" customWidth="1"/>
     <col min="4" max="4" width="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="4" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
     </row>
   </sheetData>

--- a/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L9-報表作業/MonthlyLM052Loss.xlsx
+++ b/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L9-報表作業/MonthlyLM052Loss.xlsx
@@ -5,12 +5,12 @@
   <workbookPr showObjects="none" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\SKL\DB\GenTables\L9-報表作業\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Y:\SKL\DB\GenTables\L9-報表作業\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF033EC2-F6C6-4E1B-B3F9-EAA1B5B396EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A594A5A-99A8-4434-A3D7-969D5A925B60}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView showHorizontalScroll="0" showVerticalScroll="0" xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView showHorizontalScroll="0" showVerticalScroll="0" xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DBD" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="51">
   <si>
     <t>備註說明</t>
   </si>
@@ -178,13 +178,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>LM052更新</t>
-  </si>
-  <si>
-    <t>LM052更新</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>AssetEvaTotal</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -209,6 +202,10 @@
   </si>
   <si>
     <t>TIMESTAMP</t>
+  </si>
+  <si>
+    <t>L7205更新</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -809,30 +806,30 @@
   <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.44140625" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="21.453125" defaultRowHeight="17" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="5.21875" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="25.21875" style="3" customWidth="1"/>
-    <col min="3" max="3" width="33.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="27.6640625" style="5" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="6.21875" style="3" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="36.109375" style="3" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="21.44140625" style="1"/>
+    <col min="1" max="1" width="5.1796875" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.1796875" style="3" customWidth="1"/>
+    <col min="3" max="3" width="33.6328125" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="27.6328125" style="5" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="6.1796875" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="36.08984375" style="3" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="21.453125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A1" s="29" t="s">
         <v>15</v>
       </c>
       <c r="B1" s="30"/>
       <c r="C1" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="D1" s="7" t="s">
         <v>48</v>
-      </c>
-      <c r="D1" s="7" t="s">
-        <v>50</v>
       </c>
       <c r="E1" s="8"/>
       <c r="F1" s="9"/>
@@ -841,7 +838,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A2" s="29"/>
       <c r="B2" s="30"/>
       <c r="C2" s="10" t="s">
@@ -857,7 +854,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A3" s="34" t="s">
         <v>10</v>
       </c>
@@ -872,7 +869,7 @@
       <c r="F3" s="16"/>
       <c r="G3" s="16"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A4" s="31" t="s">
         <v>11</v>
       </c>
@@ -883,7 +880,7 @@
       <c r="F4" s="16"/>
       <c r="G4" s="16"/>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A5" s="34" t="s">
         <v>12</v>
       </c>
@@ -894,7 +891,7 @@
       <c r="F5" s="9"/>
       <c r="G5" s="9"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A6" s="31" t="s">
         <v>13</v>
       </c>
@@ -905,7 +902,7 @@
       <c r="F6" s="16"/>
       <c r="G6" s="16"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A7" s="31" t="s">
         <v>14</v>
       </c>
@@ -916,7 +913,7 @@
       <c r="F7" s="20"/>
       <c r="G7" s="20"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A8" s="10" t="s">
         <v>6</v>
       </c>
@@ -939,7 +936,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A9" s="22">
         <v>1</v>
       </c>
@@ -958,16 +955,16 @@
       <c r="F9" s="22"/>
       <c r="G9" s="17"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A10" s="22">
         <f>A9+1</f>
         <v>2</v>
       </c>
       <c r="B10" s="14" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C10" s="23" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D10" s="22" t="s">
         <v>32</v>
@@ -979,10 +976,10 @@
         <v>2</v>
       </c>
       <c r="G10" s="25" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A11" s="22">
         <v>3</v>
       </c>
@@ -990,7 +987,7 @@
         <v>34</v>
       </c>
       <c r="C11" s="23" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D11" s="22" t="s">
         <v>32</v>
@@ -1002,15 +999,15 @@
         <v>2</v>
       </c>
       <c r="G11" s="26" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A12" s="22">
         <v>4</v>
       </c>
       <c r="B12" s="14" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C12" s="23" t="s">
         <v>33</v>
@@ -1024,11 +1021,11 @@
       <c r="F12" s="22">
         <v>2</v>
       </c>
-      <c r="G12" s="26" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="G12" s="25" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A13" s="22">
         <v>5</v>
       </c>
@@ -1039,13 +1036,13 @@
         <v>21</v>
       </c>
       <c r="D13" s="22" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="E13" s="22"/>
       <c r="F13" s="22"/>
       <c r="G13" s="25"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A14" s="22">
         <v>6</v>
       </c>
@@ -1064,7 +1061,7 @@
       <c r="F14" s="22"/>
       <c r="G14" s="26"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A15" s="22">
         <v>7</v>
       </c>
@@ -1075,13 +1072,13 @@
         <v>25</v>
       </c>
       <c r="D15" s="22" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="E15" s="22"/>
       <c r="F15" s="22"/>
       <c r="G15" s="27"/>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A16" s="22">
         <v>8</v>
       </c>
@@ -1100,7 +1097,7 @@
       <c r="F16" s="22"/>
       <c r="G16" s="27"/>
     </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B17" s="22"/>
       <c r="C17" s="23"/>
       <c r="D17" s="28"/>
@@ -1131,15 +1128,15 @@
       <selection pane="bottomLeft" activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="28.33203125" style="2" customWidth="1"/>
-    <col min="2" max="2" width="87.109375" style="2" customWidth="1"/>
-    <col min="3" max="3" width="55.88671875" style="2" customWidth="1"/>
+    <col min="1" max="1" width="28.36328125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="87.08984375" style="2" customWidth="1"/>
+    <col min="3" max="3" width="55.90625" style="2" customWidth="1"/>
     <col min="4" max="4" width="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1" s="4" t="s">
         <v>18</v>
       </c>
@@ -1150,7 +1147,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A2" s="2" t="s">
         <v>37</v>
       </c>
@@ -1161,7 +1158,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A3" s="2" t="s">
         <v>38</v>
       </c>
